--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>(person and RO:0000053 some 'person source role')</t>
+          <t>(person and 'has characteristic' some 'person source role')</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
@@ -5840,7 +5840,11 @@
       <c r="T88" s="2" t="inlineStr"/>
       <c r="U88" s="2" t="inlineStr"/>
       <c r="V88" s="2" t="inlineStr"/>
-      <c r="W88" s="2" t="inlineStr"/>
+      <c r="W88" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="X88" s="2" t="inlineStr">
         <is>
           <t>Published</t>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5688,7 +5688,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t xml:space="preserve">A member of the species Homo Sapiens. </t>
+          <t xml:space="preserve">An extended organism that is a member of the species Homo sapiens. </t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
@@ -5696,7 +5696,11 @@
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W87" t="inlineStr">
         <is>
           <t>External</t>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t>person</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>A relatedness between person source and the target population that is an individual who is related to another person as they are descended from a common progenitor, related by marriage or other legal tie, or by a feeling of closeness.</t>
+          <t>A person who is a member of a group of persons united by blood, or by marriage or other legal arrangement, or by self-identity as belonging to the same family.</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr"/>
@@ -2836,7 +2836,11 @@
       <c r="S39" s="2" t="inlineStr"/>
       <c r="T39" s="2" t="inlineStr"/>
       <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
           <t>Published</t>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>A gender of person source that is the cultural gender role of female.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr"/>
@@ -2896,7 +2896,11 @@
       </c>
       <c r="T40" s="2" t="inlineStr"/>
       <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -4119,7 +4123,7 @@
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -4136,7 +4140,7 @@
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>A gender of person source that is the cultural gender role of male.</t>
+          <t>A gender identity as being male.</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr"/>
@@ -4148,7 +4152,11 @@
       </c>
       <c r="T61" s="2" t="inlineStr"/>
       <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W61" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5675,11 +5683,7 @@
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>person source role</t>
-        </is>
-      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -8067,7 +8071,7 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -8084,7 +8088,7 @@
       <c r="O127" s="2" t="inlineStr"/>
       <c r="P127" s="2" t="inlineStr">
         <is>
-          <t>A personal role of source that is enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="Q127" s="2" t="inlineStr"/>
@@ -8092,7 +8096,11 @@
       <c r="S127" s="2" t="inlineStr"/>
       <c r="T127" s="2" t="inlineStr"/>
       <c r="U127" s="2" t="inlineStr"/>
-      <c r="V127" s="2" t="inlineStr"/>
+      <c r="V127" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W127" s="2" t="inlineStr">
         <is>
           <t>Published</t>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5230,40 +5230,21 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
           <t>Source</t>
@@ -5682,28 +5663,11 @@
           <t>extended organism</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t xml:space="preserve">An extended organism that is a member of the species Homo sapiens. </t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr">
         <is>
           <t>AW</t>
@@ -5714,8 +5678,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
           <t>Source</t>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:Z142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3031,75 +3037,75 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:010110</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>gender of person source</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>socio demographic attribute of person source</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr"/>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X43" s="2" t="inlineStr"/>
-      <c r="Y43" s="2" t="inlineStr"/>
-      <c r="Z43" s="2" t="inlineStr">
-        <is>
-          <t>Source</t>
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:015098</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr"/>
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
+      <c r="W43" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="X43" s="3" t="inlineStr"/>
+      <c r="Y43" s="3" t="inlineStr"/>
+      <c r="Z43" s="3" t="inlineStr">
+        <is>
+          <t>Population</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010010</t>
+          <t>BCIO:010110</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">generalist medical practitioner </t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">medical doctor </t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -3116,22 +3122,14 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities. </t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2211</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A socio-demographic attribute of person source that is an individual's perception of having a particular gender, which may or may not correspond with their birth sex.</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr"/>
+      <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>Primary care physician, family doctor, GP</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr"/>
@@ -3153,17 +3151,17 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010090</t>
+          <t>BCIO:010010</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>graduate student or trainee</t>
+          <t xml:space="preserve">generalist medical practitioner </t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>higher education student or trainee</t>
+          <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -3180,14 +3178,22 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A higher education student or trainee that has completed an undergraduate degree. </t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr"/>
-      <c r="R45" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments and maintains general health in humans through application of modern medicine. They do not limit their practice to certain disease categories or methods of treatment, and may assume responsibility for the provision of continuing and comprehensive medical care to individuals, families and communities. </t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2211</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>graduate student</t>
+          <t>Primary care physician, family doctor, GP</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr"/>
@@ -3209,17 +3215,17 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010045</t>
+          <t>BCIO:010090</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t>graduate student or trainee</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -3236,22 +3242,14 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 32</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A higher education student or trainee that has completed an undergraduate degree. </t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veterinary Technician </t>
+          <t>graduate student</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr"/>
@@ -3273,17 +3271,17 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010074</t>
+          <t>BCIO:010045</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health care assistant </t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">personal care worker </t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -3300,12 +3298,12 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
+          <t>A technician and associate professional that performs technical and practical tasks to support diagnosis and treatment of illness, disease, injuries and impairments in humans or animals, and supports the implementation of health care usually established by medical, veterinary, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 5321</t>
+          <t>ISCO: 32</t>
         </is>
       </c>
       <c r="R47" s="2" t="inlineStr">
@@ -3315,7 +3313,7 @@
       </c>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
+          <t xml:space="preserve">Veterinary Technician </t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr"/>
@@ -3337,17 +3335,17 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010008</t>
+          <t>BCIO:010074</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">health care assistant </t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -3364,12 +3362,12 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+          <t>A personal care worker that provides direct personal care and assistance with activities of daily living to patients and residents in a variety of health care settings, working  in implementation of established care plans and practices, and under the direct supervision of medical, nursing or other health professionals or associate professionals.</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 22</t>
+          <t>ISCO: 5321</t>
         </is>
       </c>
       <c r="R48" s="2" t="inlineStr">
@@ -3379,7 +3377,7 @@
       </c>
       <c r="S48" s="2" t="inlineStr">
         <is>
-          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
+          <t>Nursing aide (clinic or hospital), Patient care assistant, Psychiatric aid</t>
         </is>
       </c>
       <c r="T48" s="2" t="inlineStr"/>
@@ -3401,17 +3399,17 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010117</t>
+          <t>BCIO:010008</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>health status of person source</t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -3428,14 +3426,22 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr"/>
-      <c r="R49" s="2" t="inlineStr"/>
+          <t>A professional that improves or develops concepts, theories and operational method, and applied scientific knowledge relating to medicine, nursing, dentistry, veterinary medicine, pharmacy, and promotion of health.</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 22</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S49" s="2" t="inlineStr">
         <is>
-          <t>diabetes, cancer, depression, obesity, overweight</t>
+          <t>Health professional; Arts therapist, Chiropractor, Dance and movement therapist, Occupational therapist, Osteopath, Podiatrist, Recreational therapist, Health staff, Clinic staff</t>
         </is>
       </c>
       <c r="T49" s="2" t="inlineStr"/>
@@ -3457,17 +3463,17 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010088</t>
+          <t>BCIO:010117</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>higher education student or trainee</t>
+          <t>health status of person source</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -3484,14 +3490,14 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school. </t>
+          <t>A socio-demographic attribute of person source that represents their mental or physical condition.</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr">
         <is>
-          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
+          <t>diabetes, cancer, depression, obesity, overweight</t>
         </is>
       </c>
       <c r="T50" s="2" t="inlineStr"/>
@@ -3513,17 +3519,17 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010075</t>
+          <t>BCIO:010088</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">home-based personal care worker </t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">personal care worker </t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -3540,22 +3546,14 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 5322</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A student or trainee that is currently learning on an advanced educational programme in a university, college or professional school. </t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
-          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+          <t>completing a university bachelor's or master's course of study, medical school or other professional school.</t>
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr"/>
@@ -3577,17 +3575,17 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010085</t>
+          <t>BCIO:010075</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>informal education student or trainee</t>
+          <t xml:space="preserve">home-based personal care worker </t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -3604,12 +3602,24 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr"/>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
+          <t>A personal care worker that provide routine personal care and assistance with activities of daily living to persons who are in need of such care due to effects of ageing, illness, injury, or other physical or mental conditions, in private homes and other independent residential settings.</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 5322</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Home birth assistant, Home care aide, Nursing aide (home), Personal care provider</t>
+        </is>
+      </c>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr"/>
       <c r="V52" s="2" t="inlineStr"/>
@@ -3629,17 +3639,17 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010066</t>
+          <t>BCIO:010085</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">information and communications technician </t>
+          <t>informal education student or trainee</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -3656,24 +3666,12 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 35</t>
-        </is>
-      </c>
-      <c r="R53" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
-        </is>
-      </c>
+          <t>A student or trainee that is currently learning in a non-institutional setting.</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr"/>
       <c r="V53" s="2" t="inlineStr"/>
@@ -3693,17 +3691,17 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010121</t>
+          <t>BCIO:010066</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t xml:space="preserve">information and communications technician </t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>expertise of person source</t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -3720,14 +3718,22 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention. </t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr"/>
-      <c r="R54" s="2" t="inlineStr"/>
+          <t>A technician and associate professional that provides support for the day to day running of computer systems, communication systems and networks, broadcast images and sound, telecommunication signals on land, sea or in aircraft.</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 35</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S54" s="2" t="inlineStr">
         <is>
-          <t>trained (if unclear whether pre-existing or acquired)</t>
+          <t>Information and Communications Technology Operations and User Support Technician, Telecommunications and Broadcasting Technician</t>
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr"/>
@@ -3749,17 +3755,17 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010116</t>
+          <t>BCIO:010121</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>language proficiency of person source</t>
+          <t>knowledge or skill</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>expertise of person source</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr"/>
@@ -3776,14 +3782,14 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+          <t xml:space="preserve">An expertise of person source that is knowledge or skills held in order to deliver the behaviour change intervention. </t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr"/>
       <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
-          <t>fluent, native</t>
+          <t>trained (if unclear whether pre-existing or acquired)</t>
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr"/>
@@ -3805,17 +3811,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010058</t>
+          <t>BCIO:010116</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal and related associate professional  </t>
+          <t>language proficiency of person source</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr"/>
@@ -3832,22 +3838,14 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients. </t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 3411</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A socio-demographic attribute of person source that is an individual’s ability to speak or perform in the intervention language.</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr"/>
       <c r="S56" s="2" t="inlineStr">
         <is>
-          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
+          <t>fluent, native</t>
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr"/>
@@ -3869,17 +3867,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010035</t>
+          <t>BCIO:010058</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal professional </t>
+          <t xml:space="preserve">legal and related associate professional  </t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal, social and cultural professional </t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -3896,12 +3894,12 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
+          <t xml:space="preserve">A technician and associate professional that performs support functions in courts of law or in law offices, provide services related to such legal matters as insurance contracts, the transferring of property and the granting of loans and other financial transactions, or conduct investigations for clients. </t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 261</t>
+          <t>ISCO: 3411</t>
         </is>
       </c>
       <c r="R57" s="2" t="inlineStr">
@@ -3911,7 +3909,7 @@
       </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
-          <t>Lawyer, Judge, Coroner</t>
+          <t>Bailiff, Judge’s clerk, Conveyancing clerk, Court clerk, Justice of the peace, Law clerk, Legal assistant, Paralegal, Private detective, Title searcher</t>
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr"/>
@@ -3933,17 +3931,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010034</t>
+          <t>BCIO:010035</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">legal professional </t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">legal, social and cultural professional </t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>professional</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -3960,12 +3958,12 @@
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies. </t>
+          <t>A legal, social and cultural professional that conducts research on legal problems, advises clients on legal aspects of problems, pleads cases or conducts prosecutions in courts of law, presides over judicial proceedings in courts of law and draft laws and regulations.</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 26</t>
+          <t>ISCO: 261</t>
         </is>
       </c>
       <c r="R58" s="2" t="inlineStr">
@@ -3973,7 +3971,11 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Lawyer, Judge, Coroner</t>
+        </is>
+      </c>
       <c r="T58" s="2" t="inlineStr"/>
       <c r="U58" s="2" t="inlineStr"/>
       <c r="V58" s="2" t="inlineStr"/>
@@ -3993,17 +3995,17 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010036</t>
+          <t>BCIO:010034</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">librarian, archivist and curator </t>
+          <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal, social and cultural professional </t>
+          <t>professional</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -4020,12 +4022,12 @@
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments. </t>
+          <t xml:space="preserve">A professional that conducts research, improves or develops concepts, theories and operational methods, or applies knowledge relating to the law, social or cultural studies. </t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 262</t>
+          <t>ISCO: 26</t>
         </is>
       </c>
       <c r="R59" s="2" t="inlineStr">
@@ -4033,11 +4035,7 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S59" s="2" t="inlineStr">
-        <is>
-          <t>Librarian, Archivist,  Curator</t>
-        </is>
-      </c>
+      <c r="S59" s="2" t="inlineStr"/>
       <c r="T59" s="2" t="inlineStr"/>
       <c r="U59" s="2" t="inlineStr"/>
       <c r="V59" s="2" t="inlineStr"/>
@@ -4057,12 +4055,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010042</t>
+          <t>BCIO:010036</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>linguist</t>
+          <t xml:space="preserve">librarian, archivist and curator </t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -4084,14 +4082,22 @@
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
-        </is>
-      </c>
-      <c r="Q60" s="2" t="inlineStr"/>
-      <c r="R60" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A legal, social and cultural professional that develops and maintains collections of archives, libraries, museums, art galleries and similar establishments. </t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 262</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
-          <t>Interpretator; other linguist</t>
+          <t>Librarian, Archivist,  Curator</t>
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr"/>
@@ -4113,17 +4119,17 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010112</t>
+          <t>BCIO:010042</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>male gender</t>
+          <t>linguist</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -4140,23 +4146,19 @@
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>A gender identity as being male.</t>
+          <t>A legal, social and cultural professional that translates or interprets from one language into another.</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr"/>
       <c r="R61" s="2" t="inlineStr"/>
       <c r="S61" s="2" t="inlineStr">
         <is>
-          <t>male, man</t>
+          <t>Interpretator; other linguist</t>
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr"/>
       <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="V61" s="2" t="inlineStr"/>
       <c r="W61" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -4173,17 +4175,17 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010005</t>
+          <t>BCIO:010112</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>male gender</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -4200,27 +4202,23 @@
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
-        </is>
-      </c>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ISCO: 1 </t>
-        </is>
-      </c>
-      <c r="R62" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A gender identity as being male.</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr"/>
+      <c r="R62" s="2" t="inlineStr"/>
       <c r="S62" s="2" t="inlineStr">
         <is>
-          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
+          <t>male, man</t>
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr"/>
       <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W62" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -4237,17 +4235,17 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010091</t>
+          <t>BCIO:010005</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>masters student or trainee</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>higher education student or trainee</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -4264,14 +4262,22 @@
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
-        </is>
-      </c>
-      <c r="Q63" s="2" t="inlineStr"/>
-      <c r="R63" s="2" t="inlineStr"/>
+          <t>An occupational role of source that manages, plans and coordinates the overall activities of enterprises, governments and other organisations.</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISCO: 1 </t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
-          <t>MSc student, Masters student</t>
+          <t>Chief Executive Officers; Administrative Managers;  Commercial Managers</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr"/>
@@ -4293,17 +4299,17 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010046</t>
+          <t>BCIO:010091</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">medical and pharmaceutical technician </t>
+          <t>masters student or trainee</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr"/>
@@ -4320,22 +4326,14 @@
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 321</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A higher education student or trainee that is currently studying for a Masters degree.</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr"/>
+      <c r="R64" s="2" t="inlineStr"/>
       <c r="S64" s="2" t="inlineStr">
         <is>
-          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
+          <t>MSc student, Masters student</t>
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr"/>
@@ -4357,12 +4355,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010054</t>
+          <t>BCIO:010046</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">medical assistant </t>
+          <t xml:space="preserve">medical and pharmaceutical technician </t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -4384,12 +4382,12 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional. </t>
+          <t>A health associate professional that performs technical tasks to assist in diagnosis and treatment of illness, disease, injuries and impairments.</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3256</t>
+          <t>ISCO: 321</t>
         </is>
       </c>
       <c r="R65" s="2" t="inlineStr">
@@ -4399,7 +4397,7 @@
       </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
-          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
+          <t>Medical imaging and therapeutic equipment technician, Medical and Pathology laboratory technician, Pharmaceutical technician, Medical and dental prosthetic technician</t>
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr"/>
@@ -4421,17 +4419,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010009</t>
+          <t>BCIO:010054</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">medical doctor </t>
+          <t xml:space="preserve">medical assistant </t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr"/>
@@ -4448,12 +4446,12 @@
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
+          <t xml:space="preserve">A health associate professional that performs basic clinical and administrative tasks to support patient care under the direct supervision of a medical practitioner or other health professional. </t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 221</t>
+          <t>ISCO: 3256</t>
         </is>
       </c>
       <c r="R66" s="2" t="inlineStr">
@@ -4463,7 +4461,7 @@
       </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
-          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
+          <t>Clinical assistant, Medical assistant, Ophthalmic assistant</t>
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
@@ -4485,17 +4483,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010049</t>
+          <t>BCIO:010009</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">midwifery associate professional </t>
+          <t xml:space="preserve">medical doctor </t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursing and midwifery associate professional </t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -4512,12 +4510,12 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
+          <t>A health professional that studies, diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans through the application of modern medicine. They plan, supervise and evaluate the implementation of care and treatment plans by other health care providers, and conduct medical education and research activities.</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3222</t>
+          <t>ISCO: 221</t>
         </is>
       </c>
       <c r="R67" s="2" t="inlineStr">
@@ -4527,7 +4525,7 @@
       </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
-          <t>Assistant midwife, Traditional midwife</t>
+          <t>District medical doctor-therapist, family medical practitioner, general practitioner, medical doctor (general), medical officer (general), physician (general), primary health care physician, resident medical officer specializing in general practice</t>
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr"/>
@@ -4549,17 +4547,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010014</t>
+          <t>BCIO:010049</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">midwifery professional </t>
+          <t xml:space="preserve">midwifery associate professional </t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -4576,12 +4574,12 @@
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+          <t>A nursing and midwifery associate professional that provides basic health care and advice before, during and after pregnancy and childbirth. They implement care, treatment and referral plans usually established by medical, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2222</t>
+          <t>ISCO: 3222</t>
         </is>
       </c>
       <c r="R68" s="2" t="inlineStr">
@@ -4591,7 +4589,7 @@
       </c>
       <c r="S68" s="2" t="inlineStr">
         <is>
-          <t>Midwife</t>
+          <t>Assistant midwife, Traditional midwife</t>
         </is>
       </c>
       <c r="T68" s="2" t="inlineStr"/>
@@ -4613,17 +4611,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010131</t>
+          <t>BCIO:010014</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>monetary payment</t>
+          <t xml:space="preserve">midwifery professional </t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -4640,14 +4638,22 @@
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="Q69" s="2" t="inlineStr"/>
-      <c r="R69" s="2" t="inlineStr"/>
+          <t>A health professional that plans, manages, provides and evaluates midwifery care services before, during and after pregnancy and childbirth. They provide delivery care for reducing health risks to women and newborn children, working autonomously or in teams with other health care providers.</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2222</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S69" s="2" t="inlineStr">
         <is>
-          <t>paid in cash, vouchers</t>
+          <t>Midwife</t>
         </is>
       </c>
       <c r="T69" s="2" t="inlineStr"/>
@@ -4669,17 +4675,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010032</t>
+          <t>BCIO:010131</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">music teacher </t>
+          <t>monetary payment</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr"/>
@@ -4696,22 +4702,14 @@
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
-        </is>
-      </c>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2354</t>
-        </is>
-      </c>
-      <c r="R70" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A payment of person source that is money, vouchers or valued objects given to the source for delivering the intervention.</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr"/>
+      <c r="R70" s="2" t="inlineStr"/>
       <c r="S70" s="2" t="inlineStr">
         <is>
-          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
+          <t>paid in cash, vouchers</t>
         </is>
       </c>
       <c r="T70" s="2" t="inlineStr"/>
@@ -4733,17 +4731,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010132</t>
+          <t>BCIO:010032</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>non-monetary payment</t>
+          <t xml:space="preserve">music teacher </t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr"/>
@@ -4760,14 +4758,22 @@
       <c r="O71" s="2" t="inlineStr"/>
       <c r="P71" s="2" t="inlineStr">
         <is>
-          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
-        </is>
-      </c>
-      <c r="Q71" s="2" t="inlineStr"/>
-      <c r="R71" s="2" t="inlineStr"/>
+          <t>A teaching professional that teaches students in the practice, theory and performance of music in private or small group tuition or within mainstream educational institutions.</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2354</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S71" s="2" t="inlineStr">
         <is>
-          <t>course credit</t>
+          <t>Guitar teacher (private tuition), Piano teacher (private tuition), Singing teacher (private tuition), Violin teacher (private tuition)</t>
         </is>
       </c>
       <c r="T71" s="2" t="inlineStr"/>
@@ -4789,17 +4795,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010106</t>
+          <t>BCIO:010132</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>number of people delivering intervention to each participant</t>
+          <t>non-monetary payment</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr"/>
@@ -4812,20 +4818,20 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr"/>
       <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+      <c r="N72" s="2" t="inlineStr"/>
       <c r="O72" s="2" t="inlineStr"/>
       <c r="P72" s="2" t="inlineStr">
         <is>
-          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+          <t>A payment of person source that is non-monetary compensation given to the source for delivering the intervention.</t>
         </is>
       </c>
       <c r="Q72" s="2" t="inlineStr"/>
       <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>course credit</t>
+        </is>
+      </c>
       <c r="T72" s="2" t="inlineStr"/>
       <c r="U72" s="2" t="inlineStr"/>
       <c r="V72" s="2" t="inlineStr"/>
@@ -4845,17 +4851,17 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010047</t>
+          <t>BCIO:010106</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursing and midwifery associate professional </t>
+          <t>number of people delivering intervention to each participant</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -4868,28 +4874,20 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr"/>
       <c r="M73" s="2" t="inlineStr"/>
-      <c r="N73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr">
         <is>
-          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
-        </is>
-      </c>
-      <c r="Q73" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 322</t>
-        </is>
-      </c>
-      <c r="R73" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S73" s="2" t="inlineStr">
-        <is>
-          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
-        </is>
-      </c>
+          <t>A count data item that is the number of providers that an individual participant in the intervention encounters.</t>
+        </is>
+      </c>
+      <c r="Q73" s="2" t="inlineStr"/>
+      <c r="R73" s="2" t="inlineStr"/>
+      <c r="S73" s="2" t="inlineStr"/>
       <c r="T73" s="2" t="inlineStr"/>
       <c r="U73" s="2" t="inlineStr"/>
       <c r="V73" s="2" t="inlineStr"/>
@@ -4909,17 +4907,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010012</t>
+          <t>BCIO:010047</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursing and midwifery professional </t>
+          <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>health professional</t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -4936,12 +4934,12 @@
       <c r="O74" s="2" t="inlineStr"/>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
+          <t>A health associate professional that provides basic nursing and personal care for people who are physically or mentally ill, disabled or infirm, and for others in need of care due to potential risks to health including before, during and after childbirth. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing, midwifery and other health professionals.</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 222</t>
+          <t>ISCO: 322</t>
         </is>
       </c>
       <c r="R74" s="2" t="inlineStr">
@@ -4949,7 +4947,11 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S74" s="2" t="inlineStr"/>
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>Practice assistant, Quit Smoking Counsellor, Health educator, Dispensing Optician, Information Technician</t>
+        </is>
+      </c>
       <c r="T74" s="2" t="inlineStr"/>
       <c r="U74" s="2" t="inlineStr"/>
       <c r="V74" s="2" t="inlineStr"/>
@@ -4969,17 +4971,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010048</t>
+          <t>BCIO:010012</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursing associate professional </t>
+          <t xml:space="preserve">nursing and midwifery professional </t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursing and midwifery associate professional </t>
+          <t>health professional</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -4996,12 +4998,12 @@
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr">
         <is>
-          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
+          <t>A health professional that provides treatment and care services for people who are physically or mentally ill, disabled or infirm, and those with potential risks to health including before, during and after childbirth. They assume responsibility for the planning, management and evaluation of the care of patients, including the supervision of other health care workers, working autonomously or in teams with medical doctors and others in the practical application of preventive and curative measures.</t>
         </is>
       </c>
       <c r="Q75" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3221</t>
+          <t>ISCO: 222</t>
         </is>
       </c>
       <c r="R75" s="2" t="inlineStr">
@@ -5009,11 +5011,7 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
-        </is>
-      </c>
+      <c r="S75" s="2" t="inlineStr"/>
       <c r="T75" s="2" t="inlineStr"/>
       <c r="U75" s="2" t="inlineStr"/>
       <c r="V75" s="2" t="inlineStr"/>
@@ -5033,17 +5031,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010013</t>
+          <t>BCIO:010048</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nursing professional </t>
+          <t xml:space="preserve">nursing associate professional </t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">nursing and midwifery associate professional </t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -5060,12 +5058,12 @@
       <c r="O76" s="2" t="inlineStr"/>
       <c r="P76" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health. </t>
+          <t>A nursing and midwifery associate professional that provides basic nursing and personal care for people in need of such care due to effects of ageing, illness, injury, or other physical or mental impairment. They generally work under the supervision of, and in support of, implementation of health care, treatment and referrals plans established by medical, nursing and other health professionals.</t>
         </is>
       </c>
       <c r="Q76" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2221</t>
+          <t>ISCO: 3221</t>
         </is>
       </c>
       <c r="R76" s="2" t="inlineStr">
@@ -5075,7 +5073,7 @@
       </c>
       <c r="S76" s="2" t="inlineStr">
         <is>
-          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
+          <t>Assistant nurse, Associate professional nurse, Enrolled nurse, Practical nurse</t>
         </is>
       </c>
       <c r="T76" s="2" t="inlineStr"/>
@@ -5097,17 +5095,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010004</t>
+          <t>BCIO:010013</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">nursing professional </t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -5124,14 +5122,22 @@
       <c r="O77" s="2" t="inlineStr"/>
       <c r="P77" s="2" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="Q77" s="2" t="inlineStr"/>
-      <c r="R77" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A health professional that provides treatment, support and care services for people who are in need of nursing care due to the effects of ageing, injury, illness or other physical or mental impairment, or potential risks to health. </t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2221</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S77" s="2" t="inlineStr">
         <is>
-          <t>Interventionist, facilitator, study staff</t>
+          <t>Clinical nurse consultant, District nurse, Nurse anaesthetist, Nurse educator, Nurse practitioner, Operating theatre nurse, Professional nurse, Public health nurse, Specialist nurse, Nursing Counsellor, Study Nurse</t>
         </is>
       </c>
       <c r="T77" s="2" t="inlineStr"/>
@@ -5153,17 +5159,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010024</t>
+          <t>BCIO:010004</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">optometrist and ophthalmic optician </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t>personal role of source</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -5180,22 +5186,14 @@
       <c r="O78" s="2" t="inlineStr"/>
       <c r="P78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system. </t>
-        </is>
-      </c>
-      <c r="Q78" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2267</t>
-        </is>
-      </c>
-      <c r="R78" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A personal role of source that is realised by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="Q78" s="2" t="inlineStr"/>
+      <c r="R78" s="2" t="inlineStr"/>
       <c r="S78" s="2" t="inlineStr">
         <is>
-          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+          <t>Interventionist, facilitator, study staff</t>
         </is>
       </c>
       <c r="T78" s="2" t="inlineStr"/>
@@ -5215,97 +5213,120 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010024</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">optometrist and ophthalmic optician </t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">health professional </t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr"/>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr"/>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr"/>
+      <c r="K79" s="2" t="inlineStr"/>
+      <c r="L79" s="2" t="inlineStr"/>
+      <c r="M79" s="2" t="inlineStr"/>
+      <c r="N79" s="2" t="inlineStr"/>
+      <c r="O79" s="2" t="inlineStr"/>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A health professional  that provides diagnosis, management and treatment services for disorders of the eyes and visual system. </t>
+        </is>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2267</t>
+        </is>
+      </c>
+      <c r="R79" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>Ophthalmic optician , Optometrist, Orthoptist</t>
+        </is>
+      </c>
+      <c r="T79" s="2" t="inlineStr"/>
+      <c r="U79" s="2" t="inlineStr"/>
+      <c r="V79" s="2" t="inlineStr"/>
+      <c r="W79" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X79" s="2" t="inlineStr"/>
+      <c r="Y79" s="2" t="inlineStr"/>
+      <c r="Z79" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>OBI:0000245</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
-      <c r="W79" t="inlineStr">
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:010139</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>organisation source</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>(organisation and 'has characteristic' some 'organisational source role')</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-      <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
-      <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="inlineStr"/>
-      <c r="N80" s="2" t="inlineStr"/>
-      <c r="O80" s="2" t="inlineStr"/>
-      <c r="P80" s="2" t="inlineStr">
-        <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
-        </is>
-      </c>
-      <c r="Q80" s="2" t="inlineStr"/>
-      <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="inlineStr"/>
-      <c r="T80" s="2" t="inlineStr"/>
-      <c r="U80" s="2" t="inlineStr"/>
-      <c r="V80" s="2" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="W80" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X80" s="2" t="inlineStr"/>
-      <c r="Y80" s="2" t="inlineStr"/>
-      <c r="Z80" s="2" t="inlineStr">
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5314,20 +5335,24 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010138</t>
+          <t>BCIO:010139</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>organisational source role</t>
+          <t>organisation source</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr"/>
+          <t xml:space="preserve">organisation </t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>(organisation and 'has characteristic' some 'organisational source role')</t>
+        </is>
+      </c>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr"/>
@@ -5341,7 +5366,7 @@
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr">
         <is>
-          <t>A BCI source role that is borne by an organisation.</t>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
         </is>
       </c>
       <c r="Q81" s="2" t="inlineStr"/>
@@ -5349,7 +5374,11 @@
       <c r="S81" s="2" t="inlineStr"/>
       <c r="T81" s="2" t="inlineStr"/>
       <c r="U81" s="2" t="inlineStr"/>
-      <c r="V81" s="2" t="inlineStr"/>
+      <c r="V81" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W81" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5366,17 +5395,17 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010113</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>other gender</t>
+          <t>organisational source role</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>gender of person source</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -5393,16 +5422,12 @@
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female. </t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="Q82" s="2" t="inlineStr"/>
       <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr">
-        <is>
-          <t>non-binary, transexual</t>
-        </is>
-      </c>
+      <c r="S82" s="2" t="inlineStr"/>
       <c r="T82" s="2" t="inlineStr"/>
       <c r="U82" s="2" t="inlineStr"/>
       <c r="V82" s="2" t="inlineStr"/>
@@ -5422,17 +5447,17 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010016</t>
+          <t>BCIO:010113</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">paramedical practitioner </t>
+          <t>other gender</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t>gender of person source</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -5449,22 +5474,14 @@
       <c r="O83" s="2" t="inlineStr"/>
       <c r="P83" s="2" t="inlineStr">
         <is>
-          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
-        </is>
-      </c>
-      <c r="Q83" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 224</t>
-        </is>
-      </c>
-      <c r="R83" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A gender of person source that reports not belonging to the cultural gender role distinctions of either male or female. </t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr"/>
+      <c r="R83" s="2" t="inlineStr"/>
       <c r="S83" s="2" t="inlineStr">
         <is>
-          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
+          <t>non-binary, transexual</t>
         </is>
       </c>
       <c r="T83" s="2" t="inlineStr"/>
@@ -5486,17 +5503,17 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010096</t>
+          <t>BCIO:010016</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>parent or guardian</t>
+          <t xml:space="preserve">paramedical practitioner </t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -5513,14 +5530,22 @@
       <c r="O84" s="2" t="inlineStr"/>
       <c r="P84" s="2" t="inlineStr">
         <is>
-          <t>A family member that is a mother, father or legal carer of a child.</t>
-        </is>
-      </c>
-      <c r="Q84" s="2" t="inlineStr"/>
-      <c r="R84" s="2" t="inlineStr"/>
+          <t>A health professional that provides advisory, diagnostic, curative and preventive medical services more limited in scope and complexity than those carried out by medical doctors. They work autonomously or with limited supervision of medical doctors, and apply advanced clinical procedures for treating and preventing diseases, injuries and other physical or mental impairments common to specific communities.</t>
+        </is>
+      </c>
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 224</t>
+        </is>
+      </c>
+      <c r="R84" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S84" s="2" t="inlineStr">
         <is>
-          <t>mother, father, step-mother, step-father, guardian</t>
+          <t>Advanced care paramedic, Clinical officer (paramedical), Feldscher, Primary care paramedic, Surgical technician</t>
         </is>
       </c>
       <c r="T84" s="2" t="inlineStr"/>
@@ -5542,26 +5567,22 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010130</t>
+          <t>BCIO:010096</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>payment of person source</t>
+          <t>parent or guardian</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
@@ -5573,12 +5594,16 @@
       <c r="O85" s="2" t="inlineStr"/>
       <c r="P85" s="2" t="inlineStr">
         <is>
-          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
+          <t>A family member that is a mother, father or legal carer of a child.</t>
         </is>
       </c>
       <c r="Q85" s="2" t="inlineStr"/>
       <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr"/>
+      <c r="S85" s="2" t="inlineStr">
+        <is>
+          <t>mother, father, step-mother, step-father, guardian</t>
+        </is>
+      </c>
       <c r="T85" s="2" t="inlineStr"/>
       <c r="U85" s="2" t="inlineStr"/>
       <c r="V85" s="2" t="inlineStr"/>
@@ -5598,22 +5623,26 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010104</t>
+          <t>BCIO:010130</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>payment of person source</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
@@ -5625,7 +5654,7 @@
       <c r="O86" s="2" t="inlineStr"/>
       <c r="P86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc. </t>
+          <t>A process in which a person source is paid or compensated for delivering the intervention.</t>
         </is>
       </c>
       <c r="Q86" s="2" t="inlineStr"/>
@@ -5648,97 +5677,108 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010104</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>relatedness between person source and the target population</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr"/>
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr"/>
+      <c r="H87" s="2" t="inlineStr"/>
+      <c r="I87" s="2" t="inlineStr"/>
+      <c r="J87" s="2" t="inlineStr"/>
+      <c r="K87" s="2" t="inlineStr"/>
+      <c r="L87" s="2" t="inlineStr"/>
+      <c r="M87" s="2" t="inlineStr"/>
+      <c r="N87" s="2" t="inlineStr"/>
+      <c r="O87" s="2" t="inlineStr"/>
+      <c r="P87" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relatedness between person source and the target population that is descried as matched to intervention recipients on the basis of ‘peerness’ – age, social status, gender, shared experience, shared health status etc. </t>
+        </is>
+      </c>
+      <c r="Q87" s="2" t="inlineStr"/>
+      <c r="R87" s="2" t="inlineStr"/>
+      <c r="S87" s="2" t="inlineStr"/>
+      <c r="T87" s="2" t="inlineStr"/>
+      <c r="U87" s="2" t="inlineStr"/>
+      <c r="V87" s="2" t="inlineStr"/>
+      <c r="W87" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X87" s="2" t="inlineStr"/>
+      <c r="Y87" s="2" t="inlineStr"/>
+      <c r="Z87" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>MF:0000016</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>extended organism</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
         <is>
           <t xml:space="preserve">An extended organism that is a member of the species Homo sapiens. </t>
         </is>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr">
+      <c r="W88" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:010002</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
-      <c r="C88" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>(person and 'has characteristic' some 'person source role')</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
-      <c r="H88" s="2" t="inlineStr"/>
-      <c r="I88" s="2" t="inlineStr"/>
-      <c r="J88" s="2" t="inlineStr"/>
-      <c r="K88" s="2" t="inlineStr"/>
-      <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="inlineStr"/>
-      <c r="N88" s="2" t="inlineStr"/>
-      <c r="O88" s="2" t="inlineStr"/>
-      <c r="P88" s="2" t="inlineStr">
-        <is>
-          <t>A person who is the bearer of a behaviour change intervention source role.</t>
-        </is>
-      </c>
-      <c r="Q88" s="2" t="inlineStr"/>
-      <c r="R88" s="2" t="inlineStr"/>
-      <c r="S88" s="2" t="inlineStr"/>
-      <c r="T88" s="2" t="inlineStr"/>
-      <c r="U88" s="2" t="inlineStr"/>
-      <c r="V88" s="2" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
-      <c r="W88" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X88" s="2" t="inlineStr"/>
-      <c r="Y88" s="2" t="inlineStr"/>
-      <c r="Z88" s="2" t="inlineStr">
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5747,20 +5787,24 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010001</t>
+          <t>BCIO:010002</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>person source role</t>
+          <t>person source</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr"/>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>(person and 'has characteristic' some 'person source role')</t>
+        </is>
+      </c>
       <c r="E89" s="2" t="inlineStr"/>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr"/>
@@ -5774,7 +5818,7 @@
       <c r="O89" s="2" t="inlineStr"/>
       <c r="P89" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention source role that inheres in a person.</t>
+          <t>A person who is the bearer of a behaviour change intervention source role.</t>
         </is>
       </c>
       <c r="Q89" s="2" t="inlineStr"/>
@@ -5782,7 +5826,11 @@
       <c r="S89" s="2" t="inlineStr"/>
       <c r="T89" s="2" t="inlineStr"/>
       <c r="U89" s="2" t="inlineStr"/>
-      <c r="V89" s="2" t="inlineStr"/>
+      <c r="V89" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
       <c r="W89" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5799,17 +5847,17 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010071</t>
+          <t>BCIO:010001</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">personal care worker </t>
+          <t>person source role</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">services and sales worker </t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -5826,24 +5874,12 @@
       <c r="O90" s="2" t="inlineStr"/>
       <c r="P90" s="2" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
-        </is>
-      </c>
-      <c r="Q90" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 53</t>
-        </is>
-      </c>
-      <c r="R90" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S90" s="2" t="inlineStr">
-        <is>
-          <t>Personal carer</t>
-        </is>
-      </c>
+          <t>A behaviour change intervention source role that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="Q90" s="2" t="inlineStr"/>
+      <c r="R90" s="2" t="inlineStr"/>
+      <c r="S90" s="2" t="inlineStr"/>
       <c r="T90" s="2" t="inlineStr"/>
       <c r="U90" s="2" t="inlineStr"/>
       <c r="V90" s="2" t="inlineStr"/>
@@ -5863,17 +5899,17 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010003</t>
+          <t>BCIO:010071</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr"/>
@@ -5890,12 +5926,24 @@
       <c r="O91" s="2" t="inlineStr"/>
       <c r="P91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A role that inheres in a person source. </t>
-        </is>
-      </c>
-      <c r="Q91" s="2" t="inlineStr"/>
-      <c r="R91" s="2" t="inlineStr"/>
-      <c r="S91" s="2" t="inlineStr"/>
+          <t>A services and sales worker that provides care, supervision and assistance for children, patients and elderly, convalescent or disabled persons in institutional and residential settings.</t>
+        </is>
+      </c>
+      <c r="Q91" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 53</t>
+        </is>
+      </c>
+      <c r="R91" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S91" s="2" t="inlineStr">
+        <is>
+          <t>Personal carer</t>
+        </is>
+      </c>
       <c r="T91" s="2" t="inlineStr"/>
       <c r="U91" s="2" t="inlineStr"/>
       <c r="V91" s="2" t="inlineStr"/>
@@ -5915,17 +5963,17 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010069</t>
+          <t>BCIO:010003</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">personal services worker </t>
+          <t>personal role of source</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">services and sales worker </t>
+          <t>role</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr"/>
@@ -5942,24 +5990,12 @@
       <c r="O92" s="2" t="inlineStr"/>
       <c r="P92" s="2" t="inlineStr">
         <is>
-          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
-        </is>
-      </c>
-      <c r="Q92" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 51</t>
-        </is>
-      </c>
-      <c r="R92" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S92" s="2" t="inlineStr">
-        <is>
-          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A role that inheres in a person source. </t>
+        </is>
+      </c>
+      <c r="Q92" s="2" t="inlineStr"/>
+      <c r="R92" s="2" t="inlineStr"/>
+      <c r="S92" s="2" t="inlineStr"/>
       <c r="T92" s="2" t="inlineStr"/>
       <c r="U92" s="2" t="inlineStr"/>
       <c r="V92" s="2" t="inlineStr"/>
@@ -5979,17 +6015,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010019</t>
+          <t>BCIO:010069</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>pharmacist</t>
+          <t xml:space="preserve">personal services worker </t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr"/>
@@ -6006,12 +6042,12 @@
       <c r="O93" s="2" t="inlineStr"/>
       <c r="P93" s="2" t="inlineStr">
         <is>
-          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
+          <t>A services and sales worker that provides personal services related to travel, housekeeping, catering and hospitality, hairdressing and beauty treatment, animal care grooming and training, companionship and other services of a personal nature.</t>
         </is>
       </c>
       <c r="Q93" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2262</t>
+          <t>ISCO: 51</t>
         </is>
       </c>
       <c r="R93" s="2" t="inlineStr">
@@ -6021,7 +6057,7 @@
       </c>
       <c r="S93" s="2" t="inlineStr">
         <is>
-          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
+          <t>Travel Attendant, Conductor, Guide, Cook, Waiter, Bartender, Hairdresser, Beautician, Housekeeping Supervisor, Astrologer, Fortune-teller, Valet, Undertaker, Embalmer, Pet Groomer, Animal Care Worker</t>
         </is>
       </c>
       <c r="T93" s="2" t="inlineStr"/>
@@ -6043,12 +6079,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010021</t>
+          <t>BCIO:010019</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>physiotherapist</t>
+          <t>pharmacist</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
@@ -6070,12 +6106,12 @@
       <c r="O94" s="2" t="inlineStr"/>
       <c r="P94" s="2" t="inlineStr">
         <is>
-          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
+          <t>A health professional that stores, preserves, compounds and dispenses medicinal products and counsel on the proper use and adverse effects of drugs and medicines following prescriptions issued by medical doctors and other health professionals.</t>
         </is>
       </c>
       <c r="Q94" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2264</t>
+          <t>ISCO: 2262</t>
         </is>
       </c>
       <c r="R94" s="2" t="inlineStr">
@@ -6085,7 +6121,7 @@
       </c>
       <c r="S94" s="2" t="inlineStr">
         <is>
-          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
+          <t>Dispensing chemist, Hospital pharmacist, Industrial pharmacist, Retail pharmacist</t>
         </is>
       </c>
       <c r="T94" s="2" t="inlineStr"/>
@@ -6107,17 +6143,17 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010053</t>
+          <t>BCIO:010021</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">physiotherapy technician and assistant </t>
+          <t>physiotherapist</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr"/>
@@ -6134,12 +6170,12 @@
       <c r="O95" s="2" t="inlineStr"/>
       <c r="P95" s="2" t="inlineStr">
         <is>
-          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
+          <t>A health professional  that assesses, plans and implements rehabilitative programmes that improve or restore human motor functions, maximize movement ability, relieve pain syndromes, and treat or prevent physical challenges associated with injuries, diseases and other impairments.</t>
         </is>
       </c>
       <c r="Q95" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3255</t>
+          <t>ISCO: 2264</t>
         </is>
       </c>
       <c r="R95" s="2" t="inlineStr">
@@ -6149,7 +6185,7 @@
       </c>
       <c r="S95" s="2" t="inlineStr">
         <is>
-          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
+          <t>Geriatric physical therapist, Manipulative therapist, Orthopaedic physical therapist, Paediatric physical therapist, Physical therapist, Physiotherapist</t>
         </is>
       </c>
       <c r="T95" s="2" t="inlineStr"/>
@@ -6171,17 +6207,17 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010079</t>
+          <t>BCIO:010053</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">plant and machine operator </t>
+          <t xml:space="preserve">physiotherapy technician and assistant </t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr"/>
@@ -6198,12 +6234,12 @@
       <c r="O96" s="2" t="inlineStr"/>
       <c r="P96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment. </t>
+          <t>A health associate professional that provides physical therapeutic treatments to patients in circumstances where functional movement is threatened by injury, disease or impairment. Therapies are usually provided according to rehabilitative plans established by a physiotherapist or other health professional.</t>
         </is>
       </c>
       <c r="Q96" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 8</t>
+          <t>ISCO: 3255</t>
         </is>
       </c>
       <c r="R96" s="2" t="inlineStr">
@@ -6213,7 +6249,7 @@
       </c>
       <c r="S96" s="2" t="inlineStr">
         <is>
-          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
+          <t>Acupressure therapist, Electrotherapist, Hydrotherapist, Massage therapist, Physical rehabilitation technician, Physiotherapy technician, Shiatsu therapist</t>
         </is>
       </c>
       <c r="T96" s="2" t="inlineStr"/>
@@ -6235,17 +6271,17 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010122</t>
+          <t>BCIO:010079</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>pre-existing knowledge or skill</t>
+          <t xml:space="preserve">plant and machine operator </t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>knowledge or skill</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -6262,14 +6298,22 @@
       <c r="O97" s="2" t="inlineStr"/>
       <c r="P97" s="2" t="inlineStr">
         <is>
-          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
-        </is>
-      </c>
-      <c r="Q97" s="2" t="inlineStr"/>
-      <c r="R97" s="2" t="inlineStr"/>
+          <t xml:space="preserve">An occupational role that operates and monitors industrial and agricultural machinery and equipment on the spot or by remote control, or drives and operates trains, motor vehicles and mobile machinery and equipment. </t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 8</t>
+        </is>
+      </c>
+      <c r="R97" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S97" s="2" t="inlineStr">
         <is>
-          <t>Bachelor’s degree, certification, accredited, qualified</t>
+          <t>Stationary Plant and Machine Operator, Driver, Mobile Plant Operator</t>
         </is>
       </c>
       <c r="T97" s="2" t="inlineStr"/>
@@ -6291,17 +6335,17 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010029</t>
+          <t>BCIO:010122</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">primary school teacher </t>
+          <t>pre-existing knowledge or skill</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>knowledge or skill</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -6318,20 +6362,16 @@
       <c r="O98" s="2" t="inlineStr"/>
       <c r="P98" s="2" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
-        </is>
-      </c>
-      <c r="Q98" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2341</t>
-        </is>
-      </c>
-      <c r="R98" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S98" s="2" t="inlineStr"/>
+          <t>A knowledge or skill that is already possessed by the source which allows them to deliver the behaviour change intervention, including educational level and qualifications.</t>
+        </is>
+      </c>
+      <c r="Q98" s="2" t="inlineStr"/>
+      <c r="R98" s="2" t="inlineStr"/>
+      <c r="S98" s="2" t="inlineStr">
+        <is>
+          <t>Bachelor’s degree, certification, accredited, qualified</t>
+        </is>
+      </c>
       <c r="T98" s="2" t="inlineStr"/>
       <c r="U98" s="2" t="inlineStr"/>
       <c r="V98" s="2" t="inlineStr"/>
@@ -6351,17 +6391,17 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010006</t>
+          <t>BCIO:010029</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t xml:space="preserve">primary school teacher </t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr"/>
@@ -6378,12 +6418,12 @@
       <c r="O99" s="2" t="inlineStr"/>
       <c r="P99" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
+          <t>A teaching professional that teaches teach a range of subjects at the primary education level.</t>
         </is>
       </c>
       <c r="Q99" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2</t>
+          <t>ISCO: 2341</t>
         </is>
       </c>
       <c r="R99" s="2" t="inlineStr">
@@ -6411,17 +6451,17 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010076</t>
+          <t>BCIO:010006</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">protective services worker </t>
+          <t>professional</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">services and sales worker </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr"/>
@@ -6438,12 +6478,12 @@
       <c r="O100" s="2" t="inlineStr"/>
       <c r="P100" s="2" t="inlineStr">
         <is>
-          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+          <t>An occupational role that works in knowledge building activities, applies scientific or artistic concepts and theories or teaches about the foregoing in a systematic manner.</t>
         </is>
       </c>
       <c r="Q100" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 54</t>
+          <t>ISCO: 2</t>
         </is>
       </c>
       <c r="R100" s="2" t="inlineStr">
@@ -6451,11 +6491,7 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S100" s="2" t="inlineStr">
-        <is>
-          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
-        </is>
-      </c>
+      <c r="S100" s="2" t="inlineStr"/>
       <c r="T100" s="2" t="inlineStr"/>
       <c r="U100" s="2" t="inlineStr"/>
       <c r="V100" s="2" t="inlineStr"/>
@@ -6475,17 +6511,17 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010119</t>
+          <t>BCIO:010076</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>psychological influence on intervention delivery of person source</t>
+          <t xml:space="preserve">protective services worker </t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr"/>
@@ -6502,12 +6538,24 @@
       <c r="O101" s="2" t="inlineStr"/>
       <c r="P101" s="2" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
-        </is>
-      </c>
-      <c r="Q101" s="2" t="inlineStr"/>
-      <c r="R101" s="2" t="inlineStr"/>
-      <c r="S101" s="2" t="inlineStr"/>
+          <t>A services and sales worker that protects individuals and property against fire and other hazards, maintain law and order and enforce laws and regulations.</t>
+        </is>
+      </c>
+      <c r="Q101" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 54</t>
+        </is>
+      </c>
+      <c r="R101" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S101" s="2" t="inlineStr">
+        <is>
+          <t>Firefighter, Police officer, Prison guard, Security guard, Offender manager</t>
+        </is>
+      </c>
       <c r="T101" s="2" t="inlineStr"/>
       <c r="U101" s="2" t="inlineStr"/>
       <c r="V101" s="2" t="inlineStr"/>
@@ -6527,17 +6575,17 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010038</t>
+          <t>BCIO:010119</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>psychologist</t>
+          <t>psychological influence on intervention delivery of person source</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">social professional </t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr"/>
@@ -6554,24 +6602,12 @@
       <c r="O102" s="2" t="inlineStr"/>
       <c r="P102" s="2" t="inlineStr">
         <is>
-          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
-        </is>
-      </c>
-      <c r="Q102" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2634</t>
-        </is>
-      </c>
-      <c r="R102" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S102" s="2" t="inlineStr">
-        <is>
-          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
-        </is>
-      </c>
+          <t>A socio-demographic attribute of person source that is their existing psychological attributes related to or potentially affecting the target behaviour.</t>
+        </is>
+      </c>
+      <c r="Q102" s="2" t="inlineStr"/>
+      <c r="R102" s="2" t="inlineStr"/>
+      <c r="S102" s="2" t="inlineStr"/>
       <c r="T102" s="2" t="inlineStr"/>
       <c r="U102" s="2" t="inlineStr"/>
       <c r="V102" s="2" t="inlineStr"/>
@@ -6591,17 +6627,17 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010094</t>
+          <t>BCIO:010038</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>relatedness between person source and the target population</t>
+          <t>psychologist</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>personal role of source</t>
+          <t xml:space="preserve">social professional </t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr"/>
@@ -6618,12 +6654,24 @@
       <c r="O103" s="2" t="inlineStr"/>
       <c r="P103" s="2" t="inlineStr">
         <is>
-          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
-        </is>
-      </c>
-      <c r="Q103" s="2" t="inlineStr"/>
-      <c r="R103" s="2" t="inlineStr"/>
-      <c r="S103" s="2" t="inlineStr"/>
+          <t>A social professional that studies the mental processes and behaviour of human beings as individuals or in groups, and applies this knowledge to promote personal, social, educational or occupational adjustment and development.</t>
+        </is>
+      </c>
+      <c r="Q103" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2634</t>
+        </is>
+      </c>
+      <c r="R103" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S103" s="2" t="inlineStr">
+        <is>
+          <t>Clinical psychologist, Counselling psychologist, Educational psychologist, Forensic psychologist, Health psychologist, Neuropsychologist, Organizational psychologist, Psychotherapist, Sport and exercise psychologist</t>
+        </is>
+      </c>
       <c r="T103" s="2" t="inlineStr"/>
       <c r="U103" s="2" t="inlineStr"/>
       <c r="V103" s="2" t="inlineStr"/>
@@ -6643,17 +6691,17 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010060</t>
+          <t>BCIO:010094</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">religious associate professional </t>
+          <t>relatedness between person source and the target population</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t>personal role of source</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr"/>
@@ -6670,24 +6718,12 @@
       <c r="O104" s="2" t="inlineStr"/>
       <c r="P104" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
-        </is>
-      </c>
-      <c r="Q104" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 3413</t>
-        </is>
-      </c>
-      <c r="R104" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S104" s="2" t="inlineStr">
-        <is>
-          <t>Faith healer, Lay preacher, Monk, Nun</t>
-        </is>
-      </c>
+          <t>A personal role of source that is realised in some relationship to the characteristics of the intervention participants.</t>
+        </is>
+      </c>
+      <c r="Q104" s="2" t="inlineStr"/>
+      <c r="R104" s="2" t="inlineStr"/>
+      <c r="S104" s="2" t="inlineStr"/>
       <c r="T104" s="2" t="inlineStr"/>
       <c r="U104" s="2" t="inlineStr"/>
       <c r="V104" s="2" t="inlineStr"/>
@@ -6707,17 +6743,17 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010115</t>
+          <t>BCIO:010060</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>religious group membership of person source</t>
+          <t xml:space="preserve">religious associate professional </t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr"/>
@@ -6734,14 +6770,22 @@
       <c r="O105" s="2" t="inlineStr"/>
       <c r="P105" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion. </t>
-        </is>
-      </c>
-      <c r="Q105" s="2" t="inlineStr"/>
-      <c r="R105" s="2" t="inlineStr"/>
+          <t>A technician and associate professional that provides support to ministers of religion or to a religious community, undertake religious works, preach and propagate the teachings of a particular religion and endeavour to improve well-being through the power of faith and spiritual advice.</t>
+        </is>
+      </c>
+      <c r="Q105" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 3413</t>
+        </is>
+      </c>
+      <c r="R105" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S105" s="2" t="inlineStr">
         <is>
-          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
+          <t>Faith healer, Lay preacher, Monk, Nun</t>
         </is>
       </c>
       <c r="T105" s="2" t="inlineStr"/>
@@ -6763,17 +6807,17 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010040</t>
+          <t>BCIO:010115</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">religious professional </t>
+          <t>religious group membership of person source</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal, social and cultural professional </t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr"/>
@@ -6790,22 +6834,14 @@
       <c r="O106" s="2" t="inlineStr"/>
       <c r="P106" s="2" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
-        </is>
-      </c>
-      <c r="Q106" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2636</t>
-        </is>
-      </c>
-      <c r="R106" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A socio-demographic attribute of person source that is a religious group to which an individual identifies as belonging, where a religious group is a group of people characterised by the practice of a common religion. </t>
+        </is>
+      </c>
+      <c r="Q106" s="2" t="inlineStr"/>
+      <c r="R106" s="2" t="inlineStr"/>
       <c r="S106" s="2" t="inlineStr">
         <is>
-          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
+          <t>Muslim, Christian, Hindu, Sikh, Buddhist, Judaism</t>
         </is>
       </c>
       <c r="T106" s="2" t="inlineStr"/>
@@ -6827,17 +6863,17 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010083</t>
+          <t>BCIO:010040</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t xml:space="preserve">religious professional </t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr"/>
@@ -6854,14 +6890,22 @@
       <c r="O107" s="2" t="inlineStr"/>
       <c r="P107" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that is a researcher but unclear what discipline.</t>
-        </is>
-      </c>
-      <c r="Q107" s="2" t="inlineStr"/>
-      <c r="R107" s="2" t="inlineStr"/>
+          <t>A legal, social and cultural professional that functions  as a perpetuator of sacred traditions, practices and beliefs. They conduct religious services, celebrate or administer the rites of a religious faith or denomination, provide spiritual and moral guidance and perform other functions associated with the practice of a religion.</t>
+        </is>
+      </c>
+      <c r="Q107" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 2636</t>
+        </is>
+      </c>
+      <c r="R107" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S107" s="2" t="inlineStr">
         <is>
-          <t>researcher, research assistant, investigator</t>
+          <t>Bonze, Imam, Minister of religion, Poojari, Priest, Rabbi</t>
         </is>
       </c>
       <c r="T107" s="2" t="inlineStr"/>
@@ -6883,17 +6927,17 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010070</t>
+          <t>BCIO:010083</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sales worker </t>
+          <t>researcher</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">services and sales worker </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr"/>
@@ -6910,22 +6954,14 @@
       <c r="O108" s="2" t="inlineStr"/>
       <c r="P108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets. </t>
-        </is>
-      </c>
-      <c r="Q108" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 52</t>
-        </is>
-      </c>
-      <c r="R108" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>An occupational role that is a researcher but unclear what discipline.</t>
+        </is>
+      </c>
+      <c r="Q108" s="2" t="inlineStr"/>
+      <c r="R108" s="2" t="inlineStr"/>
       <c r="S108" s="2" t="inlineStr">
         <is>
-          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+          <t>researcher, research assistant, investigator</t>
         </is>
       </c>
       <c r="T108" s="2" t="inlineStr"/>
@@ -6947,17 +6983,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010086</t>
+          <t>BCIO:010070</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>school student or trainee</t>
+          <t xml:space="preserve">sales worker </t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr"/>
@@ -6974,12 +7010,24 @@
       <c r="O109" s="2" t="inlineStr"/>
       <c r="P109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting. </t>
-        </is>
-      </c>
-      <c r="Q109" s="2" t="inlineStr"/>
-      <c r="R109" s="2" t="inlineStr"/>
-      <c r="S109" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A services and sales worker that demonstrates goods in wholesale or retail shops, at stalls and markets, door to door, via telephone or customer contact centres. They may record and accept payment for goods and services purchased, and may operate small retail outlets. </t>
+        </is>
+      </c>
+      <c r="Q109" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 52</t>
+        </is>
+      </c>
+      <c r="R109" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S109" s="2" t="inlineStr">
+        <is>
+          <t>Street Salesperson, Market Salesperson, Shop Salesperson, Cashier, Ticket Clerk, Model, Sales Demonstrator, Door-to-door Salesperson, Contact Centre Salesperson, Service Station Attendant, Food Service Counter Attendant</t>
+        </is>
+      </c>
       <c r="T109" s="2" t="inlineStr"/>
       <c r="U109" s="2" t="inlineStr"/>
       <c r="V109" s="2" t="inlineStr"/>
@@ -6999,17 +7047,17 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010007</t>
+          <t>BCIO:010086</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">science and engineering professional </t>
+          <t>school student or trainee</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr"/>
@@ -7026,24 +7074,12 @@
       <c r="O110" s="2" t="inlineStr"/>
       <c r="P110" s="2" t="inlineStr">
         <is>
-          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
-        </is>
-      </c>
-      <c r="Q110" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 21</t>
-        </is>
-      </c>
-      <c r="R110" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S110" s="2" t="inlineStr">
-        <is>
-          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A student or trainee that is currently learning at a primary or secondary education level in an institutional, organised setting. </t>
+        </is>
+      </c>
+      <c r="Q110" s="2" t="inlineStr"/>
+      <c r="R110" s="2" t="inlineStr"/>
+      <c r="S110" s="2" t="inlineStr"/>
       <c r="T110" s="2" t="inlineStr"/>
       <c r="U110" s="2" t="inlineStr"/>
       <c r="V110" s="2" t="inlineStr"/>
@@ -7063,17 +7099,17 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010028</t>
+          <t>BCIO:010007</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">secondary education teacher </t>
+          <t xml:space="preserve">science and engineering professional </t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>professional</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr"/>
@@ -7090,12 +7126,12 @@
       <c r="O111" s="2" t="inlineStr"/>
       <c r="P111" s="2" t="inlineStr">
         <is>
-          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
+          <t>A professional that conducts research, improves or develops concepts, theories and operational methods or applies scientific knowledge.</t>
         </is>
       </c>
       <c r="Q111" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 233</t>
+          <t>ISCO: 21</t>
         </is>
       </c>
       <c r="R111" s="2" t="inlineStr">
@@ -7105,7 +7141,7 @@
       </c>
       <c r="S111" s="2" t="inlineStr">
         <is>
-          <t>Secondary school teacher, High school teacher</t>
+          <t>Science Professional, Mathematician, Actuary, Statistician, Life Science Professional, Engineering Professional, Electrotechnology Engineer, Architect, Planner, Surveyor, Designer</t>
         </is>
       </c>
       <c r="T111" s="2" t="inlineStr"/>
@@ -7127,17 +7163,17 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010068</t>
+          <t>BCIO:010028</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">services and sales worker </t>
+          <t xml:space="preserve">secondary education teacher </t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
@@ -7154,12 +7190,12 @@
       <c r="O112" s="2" t="inlineStr"/>
       <c r="P112" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+          <t>A teaching professional that teaches one or more subjects at secondary education level.</t>
         </is>
       </c>
       <c r="Q112" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 5</t>
+          <t>ISCO: 233</t>
         </is>
       </c>
       <c r="R112" s="2" t="inlineStr">
@@ -7167,7 +7203,11 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S112" s="2" t="inlineStr"/>
+      <c r="S112" s="2" t="inlineStr">
+        <is>
+          <t>Secondary school teacher, High school teacher</t>
+        </is>
+      </c>
       <c r="T112" s="2" t="inlineStr"/>
       <c r="U112" s="2" t="inlineStr"/>
       <c r="V112" s="2" t="inlineStr"/>
@@ -7187,17 +7227,17 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010098</t>
+          <t>BCIO:010068</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>sibling relationship</t>
+          <t xml:space="preserve">services and sales worker </t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -7214,16 +7254,20 @@
       <c r="O113" s="2" t="inlineStr"/>
       <c r="P113" s="2" t="inlineStr">
         <is>
-          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
-        </is>
-      </c>
-      <c r="Q113" s="2" t="inlineStr"/>
-      <c r="R113" s="2" t="inlineStr"/>
-      <c r="S113" s="2" t="inlineStr">
-        <is>
-          <t>brother, sister, step-brother, step-sister</t>
-        </is>
-      </c>
+          <t>An occupational role that provides personal or protective services related to travel, house-keeping, catering, personal care, protection against fire and unlawful acts, or sells goods in retail or markets.</t>
+        </is>
+      </c>
+      <c r="Q113" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 5</t>
+        </is>
+      </c>
+      <c r="R113" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S113" s="2" t="inlineStr"/>
       <c r="T113" s="2" t="inlineStr"/>
       <c r="U113" s="2" t="inlineStr"/>
       <c r="V113" s="2" t="inlineStr"/>
@@ -7243,17 +7287,17 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010077</t>
+          <t>BCIO:010098</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">skilled agricultural, forestry and fishery worker </t>
+          <t>sibling relationship</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>occupational role of source</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr"/>
@@ -7270,22 +7314,14 @@
       <c r="O114" s="2" t="inlineStr"/>
       <c r="P114" s="2" t="inlineStr">
         <is>
-          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
-        </is>
-      </c>
-      <c r="Q114" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 6</t>
-        </is>
-      </c>
-      <c r="R114" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A family member that is a family relationship between two persons with at least one shared parent.</t>
+        </is>
+      </c>
+      <c r="Q114" s="2" t="inlineStr"/>
+      <c r="R114" s="2" t="inlineStr"/>
       <c r="S114" s="2" t="inlineStr">
         <is>
-          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
+          <t>brother, sister, step-brother, step-sister</t>
         </is>
       </c>
       <c r="T114" s="2" t="inlineStr"/>
@@ -7307,17 +7343,17 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010037</t>
+          <t>BCIO:010077</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">social professional </t>
+          <t xml:space="preserve">skilled agricultural, forestry and fishery worker </t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">legal, social and cultural professional </t>
+          <t>occupational role of source</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr"/>
@@ -7334,12 +7370,12 @@
       <c r="O115" s="2" t="inlineStr"/>
       <c r="P115" s="2" t="inlineStr">
         <is>
-          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
+          <t>An occupational role that grows and harvests plants or animals to provide food, shelter and income for themselves and their households.</t>
         </is>
       </c>
       <c r="Q115" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 263</t>
+          <t>ISCO: 6</t>
         </is>
       </c>
       <c r="R115" s="2" t="inlineStr">
@@ -7349,7 +7385,7 @@
       </c>
       <c r="S115" s="2" t="inlineStr">
         <is>
-          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
+          <t>Market gardener, Crop grower, Animal Producer, Mixed Crop and Animal Producer, Forestry worker, Fishery worker, Hunter. Subsistence Crop Farmer, Subsistence Livestock Farmer</t>
         </is>
       </c>
       <c r="T115" s="2" t="inlineStr"/>
@@ -7371,17 +7407,17 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010039</t>
+          <t>BCIO:010037</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">social work and counselling professional </t>
+          <t xml:space="preserve">social professional </t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">social professional </t>
+          <t xml:space="preserve">legal, social and cultural professional </t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr"/>
@@ -7398,12 +7434,12 @@
       <c r="O116" s="2" t="inlineStr"/>
       <c r="P116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems. </t>
+          <t>A legal, social and cultural professional that conducts research, improves or develops concepts, theories and operational methods or applies knowledge relating to psychology, sociology, philosophy, politics, economics, sociology, anthropology, history and other social sciences, or provides social services to meet the needs of individuals and families in a community.</t>
         </is>
       </c>
       <c r="Q116" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2635</t>
+          <t>ISCO: 263</t>
         </is>
       </c>
       <c r="R116" s="2" t="inlineStr">
@@ -7413,7 +7449,7 @@
       </c>
       <c r="S116" s="2" t="inlineStr">
         <is>
-          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
+          <t>Economist, Sociologist, Anthropologist, Philosopher, Historian, Political Scientist</t>
         </is>
       </c>
       <c r="T116" s="2" t="inlineStr"/>
@@ -7435,17 +7471,17 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010059</t>
+          <t>BCIO:010039</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">social work associate professional </t>
+          <t xml:space="preserve">social work and counselling professional </t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t xml:space="preserve">social professional </t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr"/>
@@ -7462,12 +7498,12 @@
       <c r="O117" s="2" t="inlineStr"/>
       <c r="P117" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+          <t xml:space="preserve">A social professional that provides advice and guidance to individuals, families, groups, communities and organizations in response to social and personal difficulties. They assist clients to develop skills and access resources and support services needed to respond to issues arising from unemployment, poverty, disability, addiction, criminal and delinquent behaviour, marital and other problems. </t>
         </is>
       </c>
       <c r="Q117" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3412</t>
+          <t>ISCO: 2635</t>
         </is>
       </c>
       <c r="R117" s="2" t="inlineStr">
@@ -7477,7 +7513,7 @@
       </c>
       <c r="S117" s="2" t="inlineStr">
         <is>
-          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+          <t>Counsellor, Addictions counsellor, Bereavement counsellor, Child and youth counsellor, District social welfare officer, Family counsellor, Marriage counsellor, Parole officer, Probation officer, Sexual assault counsellor, Social worker, Women’s welfare organizer</t>
         </is>
       </c>
       <c r="T117" s="2" t="inlineStr"/>
@@ -7499,17 +7535,17 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010108</t>
+          <t>BCIO:010059</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t xml:space="preserve">social work associate professional </t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr"/>
@@ -7523,19 +7559,27 @@
       <c r="L118" s="2" t="inlineStr"/>
       <c r="M118" s="2" t="inlineStr"/>
       <c r="N118" s="2" t="inlineStr"/>
-      <c r="O118" s="2" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="O118" s="2" t="inlineStr"/>
       <c r="P118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A social or demographic characteristic of a human being who is the bearer of a person source role. </t>
-        </is>
-      </c>
-      <c r="Q118" s="2" t="inlineStr"/>
-      <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="inlineStr"/>
+          <t>A technician and associate professional that implements social assistance programmes and community services and assist clients to deal with personal and social problems.</t>
+        </is>
+      </c>
+      <c r="Q118" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 3412</t>
+        </is>
+      </c>
+      <c r="R118" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>Community development worker, Community services worker, Crisis intervention worker, Disability services worker, Family services worker, Life skills instructor, Mental health support worker, Welfare support worker, Women’s shelter supervisor, Youth services worker</t>
+        </is>
+      </c>
       <c r="T118" s="2" t="inlineStr"/>
       <c r="U118" s="2" t="inlineStr"/>
       <c r="V118" s="2" t="inlineStr"/>
@@ -7555,17 +7599,17 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010135</t>
+          <t>BCIO:010108</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>source involved in co-production of intervention</t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>source involved in development of intervention</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr"/>
@@ -7579,10 +7623,14 @@
       <c r="L119" s="2" t="inlineStr"/>
       <c r="M119" s="2" t="inlineStr"/>
       <c r="N119" s="2" t="inlineStr"/>
-      <c r="O119" s="2" t="inlineStr"/>
+      <c r="O119" s="2" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="P119" s="2" t="inlineStr">
         <is>
-          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
+          <t xml:space="preserve">A social or demographic characteristic of a human being who is the bearer of a person source role. </t>
         </is>
       </c>
       <c r="Q119" s="2" t="inlineStr"/>
@@ -7607,17 +7655,17 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010134</t>
+          <t>BCIO:010135</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
+          <t>source involved in co-production of intervention</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
           <t>source involved in development of intervention</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr"/>
@@ -7634,7 +7682,7 @@
       <c r="O120" s="2" t="inlineStr"/>
       <c r="P120" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI source that is involved in the development of intervention content. </t>
+          <t>A source involved in development of intervention that has developed the intervention content in collaboration with key stakeholders such as patients or community members.</t>
         </is>
       </c>
       <c r="Q120" s="2" t="inlineStr"/>
@@ -7659,12 +7707,12 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010133</t>
+          <t>BCIO:010134</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>source role related to intervention</t>
+          <t>source involved in development of intervention</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
@@ -7686,7 +7734,7 @@
       <c r="O121" s="2" t="inlineStr"/>
       <c r="P121" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention. </t>
+          <t xml:space="preserve">A BCI source that is involved in the development of intervention content. </t>
         </is>
       </c>
       <c r="Q121" s="2" t="inlineStr"/>
@@ -7711,17 +7759,17 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010031</t>
+          <t>BCIO:010133</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">special needs teacher </t>
+          <t>source role related to intervention</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr"/>
@@ -7738,24 +7786,12 @@
       <c r="O122" s="2" t="inlineStr"/>
       <c r="P122" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A teaching professional that teaches children, young persons or adults with physical or intellectual special needs. </t>
-        </is>
-      </c>
-      <c r="Q122" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 2352</t>
-        </is>
-      </c>
-      <c r="R122" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S122" s="2" t="inlineStr">
-        <is>
-          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A BCI source whose occupational or voluntary role is focused on delivery of the behaviour change intervention. </t>
+        </is>
+      </c>
+      <c r="Q122" s="2" t="inlineStr"/>
+      <c r="R122" s="2" t="inlineStr"/>
+      <c r="S122" s="2" t="inlineStr"/>
       <c r="T122" s="2" t="inlineStr"/>
       <c r="U122" s="2" t="inlineStr"/>
       <c r="V122" s="2" t="inlineStr"/>
@@ -7775,17 +7811,17 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010011</t>
+          <t>BCIO:010031</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">specialist medical practitioner </t>
+          <t xml:space="preserve">special needs teacher </t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>medical doctor</t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -7802,12 +7838,12 @@
       <c r="O123" s="2" t="inlineStr"/>
       <c r="P123" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization. </t>
+          <t xml:space="preserve">A teaching professional that teaches children, young persons or adults with physical or intellectual special needs. </t>
         </is>
       </c>
       <c r="Q123" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 2212</t>
+          <t>ISCO: 2352</t>
         </is>
       </c>
       <c r="R123" s="2" t="inlineStr">
@@ -7817,7 +7853,7 @@
       </c>
       <c r="S123" s="2" t="inlineStr">
         <is>
-          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
+          <t>Learning disabilities special education teacher, Learning support teacher, Remedial teacher, Teacher of gifted children, Teacher of the hearing impaired, Teacher of the sight impaired</t>
         </is>
       </c>
       <c r="T123" s="2" t="inlineStr"/>
@@ -7839,17 +7875,17 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010061</t>
+          <t>BCIO:010011</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sport and fitness worker </t>
+          <t xml:space="preserve">specialist medical practitioner </t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t>medical doctor</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -7866,12 +7902,12 @@
       <c r="O124" s="2" t="inlineStr"/>
       <c r="P124" s="2" t="inlineStr">
         <is>
-          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
+          <t xml:space="preserve">A medical doctor that diagnoses, treats and prevents illness, disease, injury and other physical and mental impairments in humans, using specialized testing, diagnostic, medical, surgical, physical and psychiatric techniques through application of the principles and procedures of modern medicine. They specialize in certain disease categories, types of patient or methods of treatment and may conduct medical education and research in their chosen areas of specialization. </t>
         </is>
       </c>
       <c r="Q124" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 342</t>
+          <t>ISCO: 2212</t>
         </is>
       </c>
       <c r="R124" s="2" t="inlineStr">
@@ -7881,7 +7917,7 @@
       </c>
       <c r="S124" s="2" t="inlineStr">
         <is>
-          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
+          <t>Anaesthetist, Cardiologist, Emergency medicine specialist, Gynaecologist, Obstetrician, Ophthalmologist, Paediatrician, Pathologist, Preventive medicine specialist, Psychiatrist, Radiation oncologist, Radiologist, Resident medical officer in specialist training, Specialist medical practitioner (public health), Specialist physician (internal medicine), Specialist physician (nuclear medicine), Surgeon</t>
         </is>
       </c>
       <c r="T124" s="2" t="inlineStr"/>
@@ -7903,17 +7939,17 @@
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010063</t>
+          <t>BCIO:010061</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sports coach, instructor and official </t>
+          <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">sport and fitness worker </t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -7930,12 +7966,12 @@
       <c r="O125" s="2" t="inlineStr"/>
       <c r="P125" s="2" t="inlineStr">
         <is>
-          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+          <t>A technician and associate professional that prepares for and competes in sporting events for financial gain, trains amateur and professional sportsmen and women to enhance performance, promotes participation and standards in sport, organises and officiates sporting events, or provides instruction, training and supervision for various forms of exercise and other recreational activities.</t>
         </is>
       </c>
       <c r="Q125" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3422</t>
+          <t>ISCO: 342</t>
         </is>
       </c>
       <c r="R125" s="2" t="inlineStr">
@@ -7945,7 +7981,7 @@
       </c>
       <c r="S125" s="2" t="inlineStr">
         <is>
-          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
+          <t>physical activity professional, exercise physiologist, exercise therapist, exercise specialist</t>
         </is>
       </c>
       <c r="T125" s="2" t="inlineStr"/>
@@ -7967,17 +8003,17 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010097</t>
+          <t>BCIO:010063</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>spouse or partner</t>
+          <t xml:space="preserve">sports coach, instructor and official </t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>family member</t>
+          <t xml:space="preserve">sport and fitness worker </t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -7994,14 +8030,22 @@
       <c r="O126" s="2" t="inlineStr"/>
       <c r="P126" s="2" t="inlineStr">
         <is>
-          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
-        </is>
-      </c>
-      <c r="Q126" s="2" t="inlineStr"/>
-      <c r="R126" s="2" t="inlineStr"/>
+          <t>A sport and fitness worker that works with amateur and professional sportspersons to enhance performance and encourage greater participation in sport, and organizes and officiates in sporting events according to established rules.</t>
+        </is>
+      </c>
+      <c r="Q126" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 3422</t>
+        </is>
+      </c>
+      <c r="R126" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S126" s="2" t="inlineStr">
         <is>
-          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+          <t>Referee, Ski instructor, Sports coach, Sports official, Swimming instructor</t>
         </is>
       </c>
       <c r="T126" s="2" t="inlineStr"/>
@@ -8023,17 +8067,17 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010084</t>
+          <t>BCIO:010097</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t>spouse or partner</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>family member</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -8050,19 +8094,19 @@
       <c r="O127" s="2" t="inlineStr"/>
       <c r="P127" s="2" t="inlineStr">
         <is>
-          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
+          <t>A family member that is an individual who is married or in a committed relationship with another individual.</t>
         </is>
       </c>
       <c r="Q127" s="2" t="inlineStr"/>
       <c r="R127" s="2" t="inlineStr"/>
-      <c r="S127" s="2" t="inlineStr"/>
+      <c r="S127" s="2" t="inlineStr">
+        <is>
+          <t>boyfriend, girlfriend, partner, fiance, wife, husband</t>
+        </is>
+      </c>
       <c r="T127" s="2" t="inlineStr"/>
       <c r="U127" s="2" t="inlineStr"/>
-      <c r="V127" s="2" t="inlineStr">
-        <is>
-          <t>AW</t>
-        </is>
-      </c>
+      <c r="V127" s="2" t="inlineStr"/>
       <c r="W127" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8079,26 +8123,22 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010128</t>
+          <t>BCIO:010084</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>supervision of person source</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr"/>
       <c r="E128" s="2" t="inlineStr"/>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr"/>
       <c r="I128" s="2" t="inlineStr"/>
@@ -8110,19 +8150,19 @@
       <c r="O128" s="2" t="inlineStr"/>
       <c r="P128" s="2" t="inlineStr">
         <is>
-          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
+          <t>A role which inheres in a person and is realised by being enrolled in an educational institution or a formal programme of professional training.</t>
         </is>
       </c>
       <c r="Q128" s="2" t="inlineStr"/>
       <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr">
-        <is>
-          <t>supervised</t>
-        </is>
-      </c>
+      <c r="S128" s="2" t="inlineStr"/>
       <c r="T128" s="2" t="inlineStr"/>
       <c r="U128" s="2" t="inlineStr"/>
-      <c r="V128" s="2" t="inlineStr"/>
+      <c r="V128" s="2" t="inlineStr">
+        <is>
+          <t>AW</t>
+        </is>
+      </c>
       <c r="W128" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -8139,22 +8179,26 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010118</t>
+          <t>BCIO:010128</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">target behaviour of person source </t>
+          <t>supervision of person source</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>socio demographic attribute of person source</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
       <c r="E129" s="2" t="inlineStr"/>
-      <c r="F129" s="2" t="inlineStr"/>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
       <c r="G129" s="2" t="inlineStr"/>
       <c r="H129" s="2" t="inlineStr"/>
       <c r="I129" s="2" t="inlineStr"/>
@@ -8166,14 +8210,14 @@
       <c r="O129" s="2" t="inlineStr"/>
       <c r="P129" s="2" t="inlineStr">
         <is>
-          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+          <t>A process in which a person source is formally provided, by an individual with appropriate expertise, with corrective and skill-enhancing feedback, regarding the person source’s performance in delivering the intervention.</t>
         </is>
       </c>
       <c r="Q129" s="2" t="inlineStr"/>
       <c r="R129" s="2" t="inlineStr"/>
       <c r="S129" s="2" t="inlineStr">
         <is>
-          <t>source is highly physically active</t>
+          <t>supervised</t>
         </is>
       </c>
       <c r="T129" s="2" t="inlineStr"/>
@@ -8195,17 +8239,17 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010073</t>
+          <t>BCIO:010118</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teachers’ aide </t>
+          <t xml:space="preserve">target behaviour of person source </t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">personal care worker </t>
+          <t>socio demographic attribute of person source</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -8222,22 +8266,14 @@
       <c r="O130" s="2" t="inlineStr"/>
       <c r="P130" s="2" t="inlineStr">
         <is>
-          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
-        </is>
-      </c>
-      <c r="Q130" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 5312</t>
-        </is>
-      </c>
-      <c r="R130" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A socio-demographic attribute of person source that is their amount or experience of the intervention’s target behaviour.</t>
+        </is>
+      </c>
+      <c r="Q130" s="2" t="inlineStr"/>
+      <c r="R130" s="2" t="inlineStr"/>
       <c r="S130" s="2" t="inlineStr">
         <is>
-          <t>Pre-school assistant, Teacher’s assistant</t>
+          <t>source is highly physically active</t>
         </is>
       </c>
       <c r="T130" s="2" t="inlineStr"/>
@@ -8259,17 +8295,17 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010025</t>
+          <t>BCIO:010073</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t xml:space="preserve">teachers’ aide </t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t xml:space="preserve">personal care worker </t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -8286,12 +8322,12 @@
       <c r="O131" s="2" t="inlineStr"/>
       <c r="P131" s="2" t="inlineStr">
         <is>
-          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
+          <t>A personal care worker that performs non-teaching duties to assist teaching staff, and provides care and supervision for children in schools and pre-schools.</t>
         </is>
       </c>
       <c r="Q131" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 23</t>
+          <t>ISCO: 5312</t>
         </is>
       </c>
       <c r="R131" s="2" t="inlineStr">
@@ -8301,7 +8337,7 @@
       </c>
       <c r="S131" s="2" t="inlineStr">
         <is>
-          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+          <t>Pre-school assistant, Teacher’s assistant</t>
         </is>
       </c>
       <c r="T131" s="2" t="inlineStr"/>
@@ -8323,12 +8359,12 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010044</t>
+          <t>BCIO:010025</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">technician and associate professional </t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -8350,12 +8386,12 @@
       <c r="O132" s="2" t="inlineStr"/>
       <c r="P132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations. </t>
+          <t>A professional that teaches the theory and practice of one or more disciplines at different educational levels.</t>
         </is>
       </c>
       <c r="Q132" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 3</t>
+          <t>ISCO: 23</t>
         </is>
       </c>
       <c r="R132" s="2" t="inlineStr">
@@ -8363,7 +8399,11 @@
           <t>International Standard Classification of Occupations (ISCO)</t>
         </is>
       </c>
-      <c r="S132" s="2" t="inlineStr"/>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>Education Methods Specialist, Other Language Teacher, Information Technology Teacher, Private Tutor, School Counsellor, Student Advisor</t>
+        </is>
+      </c>
       <c r="T132" s="2" t="inlineStr"/>
       <c r="U132" s="2" t="inlineStr"/>
       <c r="V132" s="2" t="inlineStr"/>
@@ -8383,17 +8423,17 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010107</t>
+          <t>BCIO:010044</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>total number of people able to deliver intervention</t>
+          <t xml:space="preserve">technician and associate professional </t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr"/>
@@ -8406,19 +8446,23 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr"/>
       <c r="M133" s="2" t="inlineStr"/>
-      <c r="N133" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
+      <c r="N133" s="2" t="inlineStr"/>
       <c r="O133" s="2" t="inlineStr"/>
       <c r="P133" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A count data item that is the total number of providers that are available and able to deliver the intervention. </t>
-        </is>
-      </c>
-      <c r="Q133" s="2" t="inlineStr"/>
-      <c r="R133" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A professional that performs technical and related tasks connected with research and the application of scientific or artistic concepts and operational methods, and government or business regulations. </t>
+        </is>
+      </c>
+      <c r="Q133" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 3</t>
+        </is>
+      </c>
+      <c r="R133" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S133" s="2" t="inlineStr"/>
       <c r="T133" s="2" t="inlineStr"/>
       <c r="U133" s="2" t="inlineStr"/>
@@ -8439,17 +8483,17 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010050</t>
+          <t>BCIO:010107</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">traditional and complementary medicine associate professional </t>
+          <t>total number of people able to deliver intervention</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health associate professional </t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr"/>
@@ -8462,28 +8506,20 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr"/>
       <c r="M134" s="2" t="inlineStr"/>
-      <c r="N134" s="2" t="inlineStr"/>
+      <c r="N134" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="O134" s="2" t="inlineStr"/>
       <c r="P134" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional. </t>
-        </is>
-      </c>
-      <c r="Q134" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 323</t>
-        </is>
-      </c>
-      <c r="R134" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
-      <c r="S134" s="2" t="inlineStr">
-        <is>
-          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A count data item that is the total number of providers that are available and able to deliver the intervention. </t>
+        </is>
+      </c>
+      <c r="Q134" s="2" t="inlineStr"/>
+      <c r="R134" s="2" t="inlineStr"/>
+      <c r="S134" s="2" t="inlineStr"/>
       <c r="T134" s="2" t="inlineStr"/>
       <c r="U134" s="2" t="inlineStr"/>
       <c r="V134" s="2" t="inlineStr"/>
@@ -8503,17 +8539,17 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010015</t>
+          <t>BCIO:010050</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">traditional and complementary medicine professional </t>
+          <t xml:space="preserve">traditional and complementary medicine associate professional </t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">health associate professional </t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr"/>
@@ -8530,12 +8566,12 @@
       <c r="O135" s="2" t="inlineStr"/>
       <c r="P135" s="2" t="inlineStr">
         <is>
-          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+          <t xml:space="preserve">A health associate professional that prevents and treats human physical and mental illnesses, disorders and injuries using herbal and other therapies based on theories, beliefs and experiences originating in specific cultures. They administer treatments using traditional techniques and medicaments, either acting independently or according to therapeutic care plans established by a traditional medicine or other health professional. </t>
         </is>
       </c>
       <c r="Q135" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 223</t>
+          <t>ISCO: 323</t>
         </is>
       </c>
       <c r="R135" s="2" t="inlineStr">
@@ -8545,7 +8581,7 @@
       </c>
       <c r="S135" s="2" t="inlineStr">
         <is>
-          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
+          <t>Acupuncture technician, Ayurvedic technician, Bonesetter, Herbalist , Homeopathy technician, Scraping and cupping therapist, Village healer, Witch doctor</t>
         </is>
       </c>
       <c r="T135" s="2" t="inlineStr"/>
@@ -8567,17 +8603,17 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010089</t>
+          <t>BCIO:010015</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>undergraduate student or trainee</t>
+          <t xml:space="preserve">traditional and complementary medicine professional </t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>higher education student or trainee</t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr"/>
@@ -8594,14 +8630,22 @@
       <c r="O136" s="2" t="inlineStr"/>
       <c r="P136" s="2" t="inlineStr">
         <is>
-          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
-        </is>
-      </c>
-      <c r="Q136" s="2" t="inlineStr"/>
-      <c r="R136" s="2" t="inlineStr"/>
+          <t>A health professional that examines patients, prevents and treats illness, disease, injury and other physical and mental impairments and maintains general health in humans. They do this by applying knowledge, skills and practices acquired through extensive study of the theories, beliefs and experiences originating in specific cultures.</t>
+        </is>
+      </c>
+      <c r="Q136" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 223</t>
+        </is>
+      </c>
+      <c r="R136" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
       <c r="S136" s="2" t="inlineStr">
         <is>
-          <t>undergraduate student</t>
+          <t>Acupuncturist, Ayurvedic practitioner,  Chinese herbal medicine practitioner, Homeopath, Naturopath, Unani practitioner</t>
         </is>
       </c>
       <c r="T136" s="2" t="inlineStr"/>
@@ -8623,18 +8667,17 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010026</t>
+          <t>BCIO:010089</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">university and higher education teacher
-</t>
+          <t>undergraduate student or trainee</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t>higher education student or trainee</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr"/>
@@ -8651,22 +8694,14 @@
       <c r="O137" s="2" t="inlineStr"/>
       <c r="P137" s="2" t="inlineStr">
         <is>
-          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
-        </is>
-      </c>
-      <c r="Q137" s="2" t="inlineStr">
-        <is>
-          <t>ISCO: 231</t>
-        </is>
-      </c>
-      <c r="R137" s="2" t="inlineStr">
-        <is>
-          <t>International Standard Classification of Occupations (ISCO)</t>
-        </is>
-      </c>
+          <t>A higher education student or trainee that is currently studying for an undergraduate degree.</t>
+        </is>
+      </c>
+      <c r="Q137" s="2" t="inlineStr"/>
+      <c r="R137" s="2" t="inlineStr"/>
       <c r="S137" s="2" t="inlineStr">
         <is>
-          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
+          <t>undergraduate student</t>
         </is>
       </c>
       <c r="T137" s="2" t="inlineStr"/>
@@ -8688,17 +8723,18 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010017</t>
+          <t>BCIO:010026</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">veterinarian </t>
+          <t xml:space="preserve">university and higher education teacher
+</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">health professional </t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr"/>
@@ -8715,12 +8751,12 @@
       <c r="O138" s="2" t="inlineStr"/>
       <c r="P138" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals. </t>
+          <t>A teaching professional that prepares and delivers lectures and conduct tutorials in one or more subjects within a prescribed course of study at a university or other higher educational institution. They conduct research, and prepare scholarly papers and books.</t>
         </is>
       </c>
       <c r="Q138" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 225</t>
+          <t>ISCO: 231</t>
         </is>
       </c>
       <c r="R138" s="2" t="inlineStr">
@@ -8730,7 +8766,7 @@
       </c>
       <c r="S138" s="2" t="inlineStr">
         <is>
-          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
+          <t>Higher education lecturer, Professor, University lecturer, University tutor</t>
         </is>
       </c>
       <c r="T138" s="2" t="inlineStr"/>
@@ -8752,17 +8788,17 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010027</t>
+          <t>BCIO:010017</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>vocational education teacher</t>
+          <t xml:space="preserve">veterinarian </t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">teaching professional </t>
+          <t xml:space="preserve">health professional </t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr"/>
@@ -8779,12 +8815,12 @@
       <c r="O139" s="2" t="inlineStr"/>
       <c r="P139" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges. </t>
+          <t xml:space="preserve">A health professional that diagnoses, prevents and treats diseases, injuries and dysfunctions of animals. </t>
         </is>
       </c>
       <c r="Q139" s="2" t="inlineStr">
         <is>
-          <t>ISCO: 232</t>
+          <t>ISCO: 225</t>
         </is>
       </c>
       <c r="R139" s="2" t="inlineStr">
@@ -8794,7 +8830,7 @@
       </c>
       <c r="S139" s="2" t="inlineStr">
         <is>
-          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+          <t>Animal pathologist, Veterinarian, Veterinary epidemiologist, Veterinary intern, Veterinary surgeon</t>
         </is>
       </c>
       <c r="T139" s="2" t="inlineStr"/>
@@ -8816,17 +8852,17 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010087</t>
+          <t>BCIO:010027</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>vocational training student or trainee</t>
+          <t>vocational education teacher</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>student or trainee role</t>
+          <t xml:space="preserve">teaching professional </t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr"/>
@@ -8843,12 +8879,24 @@
       <c r="O140" s="2" t="inlineStr"/>
       <c r="P140" s="2" t="inlineStr">
         <is>
-          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
-        </is>
-      </c>
-      <c r="Q140" s="2" t="inlineStr"/>
-      <c r="R140" s="2" t="inlineStr"/>
-      <c r="S140" s="2" t="inlineStr"/>
+          <t xml:space="preserve">A teaching professional that teaches or instructs vocational or occupational subjects in adult and further education institutions and to senior students in secondary schools and colleges. </t>
+        </is>
+      </c>
+      <c r="Q140" s="2" t="inlineStr">
+        <is>
+          <t>ISCO: 232</t>
+        </is>
+      </c>
+      <c r="R140" s="2" t="inlineStr">
+        <is>
+          <t>International Standard Classification of Occupations (ISCO)</t>
+        </is>
+      </c>
+      <c r="S140" s="2" t="inlineStr">
+        <is>
+          <t>Automotive technology instructor, Cosmetology instructor, Vocational education teacher</t>
+        </is>
+      </c>
       <c r="T140" s="2" t="inlineStr"/>
       <c r="U140" s="2" t="inlineStr"/>
       <c r="V140" s="2" t="inlineStr"/>
@@ -8868,26 +8916,22 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010129</t>
+          <t>BCIO:010087</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>volunteering of person source</t>
+          <t>vocational training student or trainee</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>student or trainee role</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr"/>
       <c r="E141" s="2" t="inlineStr"/>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>person source</t>
-        </is>
-      </c>
+      <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr"/>
@@ -8899,16 +8943,12 @@
       <c r="O141" s="2" t="inlineStr"/>
       <c r="P141" s="2" t="inlineStr">
         <is>
-          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+          <t>A student or trainee that is currently learning the curriculum material of vocational programme, normally in preparation for employment in a trade, job or profession.</t>
         </is>
       </c>
       <c r="Q141" s="2" t="inlineStr"/>
       <c r="R141" s="2" t="inlineStr"/>
-      <c r="S141" s="2" t="inlineStr">
-        <is>
-          <t>voluntary basis, volunteering</t>
-        </is>
-      </c>
+      <c r="S141" s="2" t="inlineStr"/>
       <c r="T141" s="2" t="inlineStr"/>
       <c r="U141" s="2" t="inlineStr"/>
       <c r="V141" s="2" t="inlineStr"/>
@@ -8925,6 +8965,66 @@
         </is>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010129</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>volunteering of person source</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>person source</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr"/>
+      <c r="J142" s="2" t="inlineStr"/>
+      <c r="K142" s="2" t="inlineStr"/>
+      <c r="L142" s="2" t="inlineStr"/>
+      <c r="M142" s="2" t="inlineStr"/>
+      <c r="N142" s="2" t="inlineStr"/>
+      <c r="O142" s="2" t="inlineStr"/>
+      <c r="P142" s="2" t="inlineStr">
+        <is>
+          <t>A process in which a person source delivers the intervention on a voluntary basis without formal compensation.</t>
+        </is>
+      </c>
+      <c r="Q142" s="2" t="inlineStr"/>
+      <c r="R142" s="2" t="inlineStr"/>
+      <c r="S142" s="2" t="inlineStr">
+        <is>
+          <t>voluntary basis, volunteering</t>
+        </is>
+      </c>
+      <c r="T142" s="2" t="inlineStr"/>
+      <c r="U142" s="2" t="inlineStr"/>
+      <c r="V142" s="2" t="inlineStr"/>
+      <c r="W142" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X142" s="2" t="inlineStr"/>
+      <c r="Y142" s="2" t="inlineStr"/>
+      <c r="Z142" s="2" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,11 +40,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
   </fills>
@@ -60,11 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3037,56 +3031,56 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>BCIO:015098</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>gender identity</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr"/>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
-      <c r="Q43" s="3" t="inlineStr"/>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr"/>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr">
+      <c r="Q43" s="2" t="inlineStr"/>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr"/>
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
         <is>
           <t>AW</t>
         </is>
       </c>
-      <c r="W43" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="X43" s="3" t="inlineStr"/>
-      <c r="Y43" s="3" t="inlineStr"/>
-      <c r="Z43" s="3" t="inlineStr">
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X43" s="2" t="inlineStr"/>
+      <c r="Y43" s="2" t="inlineStr"/>
+      <c r="Z43" s="2" t="inlineStr">
         <is>
           <t>Population</t>
         </is>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5286,40 +5286,21 @@
           <t>material entity</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
           <t>Source</t>
@@ -5738,28 +5719,11 @@
           <t>extended organism</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t xml:space="preserve">An extended organism that is a member of the species Homo sapiens. </t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr">
         <is>
           <t>AW</t>
@@ -5770,8 +5734,6 @@
           <t>External</t>
         </is>
       </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
           <t>Source</t>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5271,56 +5271,60 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>OBI:0000245</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:010139</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>organisation source</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">organisation </t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>organisational source role</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>(organisation and 'has characteristic' some 'organisational source role')</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="Q80" s="2" t="inlineStr"/>
+      <c r="R80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr"/>
+      <c r="T80" s="2" t="inlineStr"/>
+      <c r="U80" s="2" t="inlineStr"/>
+      <c r="V80" s="2" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
+      </c>
+      <c r="W80" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="X80" s="2" t="inlineStr"/>
+      <c r="Y80" s="2" t="inlineStr"/>
+      <c r="Z80" s="2" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
@@ -5329,24 +5333,20 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>BCIO:010139</t>
+          <t>BCIO:010138</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>organisation source</t>
+          <t>organisational source role</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>(organisation and 'has characteristic' some 'organisational source role')</t>
-        </is>
-      </c>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr"/>
@@ -5360,7 +5360,7 @@
       <c r="O81" s="2" t="inlineStr"/>
       <c r="P81" s="2" t="inlineStr">
         <is>
-          <t>An organisation that is the bearer of a behaviour change intervention source role, such as voluntary, public or commercial organisations delivering a behaviour change intervention.</t>
+          <t>A BCI source role that is borne by an organisation.</t>
         </is>
       </c>
       <c r="Q81" s="2" t="inlineStr"/>
@@ -5368,11 +5368,7 @@
       <c r="S81" s="2" t="inlineStr"/>
       <c r="T81" s="2" t="inlineStr"/>
       <c r="U81" s="2" t="inlineStr"/>
-      <c r="V81" s="2" t="inlineStr">
-        <is>
-          <t>BG</t>
-        </is>
-      </c>
+      <c r="V81" s="2" t="inlineStr"/>
       <c r="W81" s="2" t="inlineStr">
         <is>
           <t>Published</t>
@@ -5387,52 +5383,60 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:010138</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>OBI:0000245</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">organization </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>organisational source role</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention source</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr"/>
-      <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="inlineStr"/>
-      <c r="N82" s="2" t="inlineStr"/>
-      <c r="O82" s="2" t="inlineStr"/>
-      <c r="P82" s="2" t="inlineStr">
-        <is>
-          <t>A BCI source role that is borne by an organisation.</t>
-        </is>
-      </c>
-      <c r="Q82" s="2" t="inlineStr"/>
-      <c r="R82" s="2" t="inlineStr"/>
-      <c r="S82" s="2" t="inlineStr"/>
-      <c r="T82" s="2" t="inlineStr"/>
-      <c r="U82" s="2" t="inlineStr"/>
-      <c r="V82" s="2" t="inlineStr"/>
-      <c r="W82" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="X82" s="2" t="inlineStr"/>
-      <c r="Y82" s="2" t="inlineStr"/>
-      <c r="Z82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An entity that can bear roles, has members, and has a set of organization rules. Members of organizations are either organizations themselves or individual people. Members can bear specific organization member roles that are determined in the organization rules. The organization rules also determine how decisions are made on behalf of the organization by the organization members. </t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr">
         <is>
           <t>Source</t>
         </is>

--- a/Source/bcio_source.xlsx
+++ b/Source/bcio_source.xlsx
@@ -5283,7 +5283,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">organisation </t>
+          <t xml:space="preserve">organization </t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -5314,7 +5314,7 @@
       <c r="U80" s="2" t="inlineStr"/>
       <c r="V80" s="2" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BG; PS</t>
         </is>
       </c>
       <c r="W80" s="2" t="inlineStr">
